--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N2">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P2">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q2">
-        <v>48.74695854406866</v>
+        <v>3.617098305893333</v>
       </c>
       <c r="R2">
-        <v>438.722626896618</v>
+        <v>32.55388475303999</v>
       </c>
       <c r="S2">
-        <v>0.01509879412844344</v>
+        <v>0.002500877693636682</v>
       </c>
       <c r="T2">
-        <v>0.01509879412844344</v>
+        <v>0.002500877693636682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
         <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P3">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q3">
-        <v>1590.696343875165</v>
+        <v>428.5800838674942</v>
       </c>
       <c r="R3">
-        <v>14316.26709487648</v>
+        <v>3857.220754807447</v>
       </c>
       <c r="S3">
-        <v>0.4926993874977079</v>
+        <v>0.2963221568888049</v>
       </c>
       <c r="T3">
-        <v>0.4926993874977079</v>
+        <v>0.2963221568888048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N4">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P4">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q4">
-        <v>550.9583259202126</v>
+        <v>144.7335209116315</v>
       </c>
       <c r="R4">
-        <v>4958.624933281913</v>
+        <v>1302.601688204684</v>
       </c>
       <c r="S4">
-        <v>0.1706528280918427</v>
+        <v>0.1000693935743066</v>
       </c>
       <c r="T4">
-        <v>0.1706528280918427</v>
+        <v>0.1000693935743066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H5">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N5">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P5">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q5">
-        <v>4.342259709189999</v>
+        <v>0.9725477364695556</v>
       </c>
       <c r="R5">
-        <v>39.08033738271</v>
+        <v>8.752929628226001</v>
       </c>
       <c r="S5">
-        <v>0.001344963611258408</v>
+        <v>0.0006724237868157303</v>
       </c>
       <c r="T5">
-        <v>0.001344963611258408</v>
+        <v>0.0006724237868157303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N6">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P6">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q6">
-        <v>1.621350869897333</v>
+        <v>0.4465242960266667</v>
       </c>
       <c r="R6">
-        <v>14.592157829076</v>
+        <v>4.01871866424</v>
       </c>
       <c r="S6">
-        <v>0.0005021942645390173</v>
+        <v>0.0003087288641783585</v>
       </c>
       <c r="T6">
-        <v>0.0005021942645390172</v>
+        <v>0.0003087288641783585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
         <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P7">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q7">
         <v>52.90744239054312</v>
       </c>
       <c r="R7">
-        <v>476.1669815148881</v>
+        <v>476.166981514888</v>
       </c>
       <c r="S7">
-        <v>0.01638745481515773</v>
+        <v>0.03658043860358907</v>
       </c>
       <c r="T7">
-        <v>0.01638745481515773</v>
+        <v>0.03658043860358906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J8">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N8">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P8">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q8">
-        <v>18.32517940991845</v>
+        <v>17.86709347413378</v>
       </c>
       <c r="R8">
-        <v>164.926614689266</v>
+        <v>160.803841267204</v>
       </c>
       <c r="S8">
-        <v>0.005676007684192548</v>
+        <v>0.01235338709118856</v>
       </c>
       <c r="T8">
-        <v>0.005676007684192547</v>
+        <v>0.01235338709118856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J9">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N9">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P9">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q9">
-        <v>0.14442596558</v>
+        <v>0.1200592731117778</v>
       </c>
       <c r="R9">
-        <v>1.29983369022</v>
+        <v>1.080533458006</v>
       </c>
       <c r="S9">
-        <v>4.473423545230419E-05</v>
+        <v>8.300951001256359E-05</v>
       </c>
       <c r="T9">
-        <v>4.473423545230418E-05</v>
+        <v>8.300951001256359E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N10">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P10">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q10">
-        <v>8.670412571967331</v>
+        <v>3.129656953826666</v>
       </c>
       <c r="R10">
-        <v>78.03371314770598</v>
+        <v>28.16691258444</v>
       </c>
       <c r="S10">
-        <v>0.002685557793609905</v>
+        <v>0.002163858596767386</v>
       </c>
       <c r="T10">
-        <v>0.002685557793609905</v>
+        <v>0.002163858596767386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H11">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
         <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P11">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q11">
-        <v>282.9303404775364</v>
+        <v>370.824491433403</v>
       </c>
       <c r="R11">
-        <v>2546.373064297828</v>
+        <v>3337.420422900627</v>
       </c>
       <c r="S11">
-        <v>0.08763432819503607</v>
+        <v>0.2563896860002325</v>
       </c>
       <c r="T11">
-        <v>0.08763432819503607</v>
+        <v>0.2563896860002325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H12">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N12">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P12">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q12">
-        <v>97.99659585674677</v>
+        <v>125.2291842427638</v>
       </c>
       <c r="R12">
-        <v>881.9693627107209</v>
+        <v>1127.062658184874</v>
       </c>
       <c r="S12">
-        <v>0.03035328706285674</v>
+        <v>0.08658400933001399</v>
       </c>
       <c r="T12">
-        <v>0.03035328706285673</v>
+        <v>0.08658400933001399</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H13">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N13">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P13">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q13">
-        <v>0.7723391222299999</v>
+        <v>0.8414868850567778</v>
       </c>
       <c r="R13">
-        <v>6.951052100069999</v>
+        <v>7.573381965511</v>
       </c>
       <c r="S13">
-        <v>0.0002392229126121018</v>
+        <v>0.000581807737129379</v>
       </c>
       <c r="T13">
-        <v>0.0002392229126121017</v>
+        <v>0.000581807737129379</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H14">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.701354</v>
+        <v>0.74396</v>
       </c>
       <c r="N14">
-        <v>8.104061999999999</v>
+        <v>2.23188</v>
       </c>
       <c r="O14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804254</v>
       </c>
       <c r="P14">
-        <v>0.02221077311549548</v>
+        <v>0.006259003216804255</v>
       </c>
       <c r="Q14">
-        <v>12.66949703356733</v>
+        <v>1.859314255493333</v>
       </c>
       <c r="R14">
-        <v>114.025473302106</v>
+        <v>16.73382829944</v>
       </c>
       <c r="S14">
-        <v>0.003924226928903115</v>
+        <v>0.001285538062221828</v>
       </c>
       <c r="T14">
-        <v>0.003924226928903115</v>
+        <v>0.001285538062221828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H15">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>88.14978533333334</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
         <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="P15">
-        <v>0.7247753838328105</v>
+        <v>0.7416121699579786</v>
       </c>
       <c r="Q15">
-        <v>413.4272826850031</v>
+        <v>220.3050600690142</v>
       </c>
       <c r="R15">
-        <v>3720.845544165029</v>
+        <v>1982.745540621128</v>
       </c>
       <c r="S15">
-        <v>0.1280542133249088</v>
+        <v>0.1523198884653522</v>
       </c>
       <c r="T15">
-        <v>0.1280542133249088</v>
+        <v>0.1523198884653522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H16">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.53182233333333</v>
+        <v>29.76859933333333</v>
       </c>
       <c r="N16">
-        <v>91.595467</v>
+        <v>89.305798</v>
       </c>
       <c r="O16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="P16">
-        <v>0.2510353617660938</v>
+        <v>0.2504459365921425</v>
       </c>
       <c r="Q16">
-        <v>143.1959056390135</v>
+        <v>74.39806052279155</v>
       </c>
       <c r="R16">
-        <v>1288.763150751121</v>
+        <v>669.582544705124</v>
       </c>
       <c r="S16">
-        <v>0.04435323892720177</v>
+        <v>0.05143914659663333</v>
       </c>
       <c r="T16">
-        <v>0.04435323892720177</v>
+        <v>0.05143914659663333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H17">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.24063</v>
+        <v>0.2000323333333334</v>
       </c>
       <c r="N17">
-        <v>0.72189</v>
+        <v>0.6000970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="P17">
-        <v>0.001978481285600361</v>
+        <v>0.00168289023307462</v>
       </c>
       <c r="Q17">
-        <v>1.12856777423</v>
+        <v>0.4999233412095557</v>
       </c>
       <c r="R17">
-        <v>10.15710996807</v>
+        <v>4.499310070886001</v>
       </c>
       <c r="S17">
-        <v>0.000349560526277547</v>
+        <v>0.0003456491991169473</v>
       </c>
       <c r="T17">
-        <v>0.000349560526277547</v>
+        <v>0.0003456491991169474</v>
       </c>
     </row>
   </sheetData>
